--- a/estatistica/atividades/formulas.xlsx
+++ b/estatistica/atividades/formulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\839462\Documents\GitHub\unaerp\estatistica\atividades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marln\OneDrive\Documents\estudos\unaerp\estatistica\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3185B95-3013-47E4-AD99-589E8BEDB223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0ADC2-50B3-4772-B647-1307502FFF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{5CFFDB7C-B6A0-442D-ABC7-BF2F52BDE569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CFFDB7C-B6A0-442D-ABC7-BF2F52BDE569}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>POPULAÇÃO GRANDE</t>
   </si>
@@ -55,6 +66,15 @@
   </si>
   <si>
     <t>arred E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n: tamanho da amostra </t>
+  </si>
+  <si>
+    <t>N: tamanho da população</t>
+  </si>
+  <si>
+    <t>E: erro amostral (decimal)</t>
   </si>
 </sst>
 </file>
@@ -64,7 +84,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -245,11 +265,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -285,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -431,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1120E138-BD71-494E-9F86-D3DD39049BA8}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +615,7 @@
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="16" t="s">
@@ -606,8 +626,11 @@
       <c r="F1" s="12"/>
       <c r="G1" s="11"/>
       <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -624,8 +647,11 @@
         <v>6</v>
       </c>
       <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -639,11 +665,14 @@
         <v>7</v>
       </c>
       <c r="G3" s="6">
-        <v>112</v>
+        <v>200000</v>
       </c>
       <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -658,11 +687,11 @@
         <v>2</v>
       </c>
       <c r="G4" s="7">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="18"/>
       <c r="C5" s="17"/>
@@ -673,11 +702,11 @@
       </c>
       <c r="G5" s="6">
         <f>(G3/G4^2)/(G3+1/G4^2)</f>
-        <v>87.5</v>
+        <v>2469.1358024691358</v>
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -693,11 +722,11 @@
       </c>
       <c r="G6" s="6">
         <f>ROUNDUP(G5,0)</f>
-        <v>88</v>
+        <v>2470</v>
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -707,7 +736,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -721,11 +750,11 @@
         <v>7</v>
       </c>
       <c r="G8" s="6">
-        <v>300</v>
+        <v>200000</v>
       </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -740,11 +769,11 @@
         <v>3</v>
       </c>
       <c r="G9" s="6">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -755,11 +784,11 @@
       </c>
       <c r="G10" s="6">
         <f>SQRT((G8-G9)/(G8*G9))</f>
-        <v>8.1649658092772609E-2</v>
+        <v>2.5722882160960629E-2</v>
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -775,11 +804,11 @@
       </c>
       <c r="G11" s="9">
         <f>ROUNDUP(G10,3)</f>
-        <v>8.2000000000000003E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
